--- a/src/test/resources/excel/SliderData.xlsx
+++ b/src/test/resources/excel/SliderData.xlsx
@@ -316,7 +316,7 @@
         <v>125.0</v>
       </c>
       <c r="B4" s="1">
-        <v>80.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="5">
@@ -324,7 +324,7 @@
         <v>205.0</v>
       </c>
       <c r="B5" s="1">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="6">
@@ -340,7 +340,7 @@
         <v>-201.0</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
